--- a/Backend/exports/income_statement_2_7_2025.xlsx
+++ b/Backend/exports/income_statement_2_7_2025.xlsx
@@ -1,104 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/945d3aea6ddfb471/Desktop/DoAnTotNghiep/Support_Financial/Backend/exports/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_AE7F860140397D6A206102A95815AD5BA12C7E1B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5182625B-8C37-4DEF-96E9-DFE27B252C86}"/>
-  <bookViews>
-    <workbookView xWindow="28680" yWindow="-10725" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
     <sheet name="KQKD" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
-  <si>
-    <t>BÁO CÁO KẾT QUẢ KINH DOANH</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Chỉ tiêu</t>
-  </si>
-  <si>
-    <t>Số tiền (VNĐ)</t>
-  </si>
-  <si>
-    <t>Doanh thu thuần</t>
-  </si>
-  <si>
-    <t>Giá vốn hàng bán</t>
-  </si>
-  <si>
-    <t>Lợi nhuận gộp</t>
-  </si>
-  <si>
-    <t>Chi phí bán hàng</t>
-  </si>
-  <si>
-    <t>Chi phí quản lý doanh nghiệp</t>
-  </si>
-  <si>
-    <t>Khấu hao tài sản cố định</t>
-  </si>
-  <si>
-    <t>Chi phí thuê ngoài</t>
-  </si>
-  <si>
-    <t>Chi phí thuế khác</t>
-  </si>
-  <si>
-    <t>Lợi nhuận thuần từ hoạt động kinh doanh</t>
-  </si>
-  <si>
-    <t>Thuế TNDN</t>
-  </si>
-  <si>
-    <t>Lợi nhuận sau thuế</t>
-  </si>
-  <si>
-    <t>🔎 PHÂN TÍCH TÀI CHÍNH</t>
-  </si>
-  <si>
-    <t>ROA</t>
-  </si>
-  <si>
-    <t>ROE</t>
-  </si>
-  <si>
-    <t>Tỷ lệ nợ / tổng tài sản</t>
-  </si>
-  <si>
-    <t>Khả năng thanh toán hiện hành</t>
-  </si>
-  <si>
-    <t>Vòng quay hàng tồn kho</t>
-  </si>
-  <si>
-    <t>Vòng quay tài sản</t>
-  </si>
-  <si>
-    <t>Biên lợi nhuận ròng</t>
-  </si>
-  <si>
-    <t>Biên lợi nhuận gộp</t>
-  </si>
-</sst>
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+  <numFmts count="1">
+    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+  </numFmts>
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -128,21 +65,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -467,215 +396,209 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="42.8984375" customWidth="1"/>
-    <col min="2" max="2" width="78.59765625" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>4</v>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>BÁO CÁO KẾT QUẢ KINH DOANH</v>
+      </c>
+      <c r="B1" t="str">
+        <v/>
+      </c>
+      <c r="C1" t="str">
+        <v/>
+      </c>
+      <c r="D1" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>Chỉ tiêu</v>
+      </c>
+      <c r="B2" t="str">
+        <v>Số tiền (VNĐ)</v>
+      </c>
+      <c r="C2" t="str">
+        <v/>
+      </c>
+      <c r="D2" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>Doanh thu thuần</v>
       </c>
       <c r="B3">
         <v>6155000000</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>5</v>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Giá vốn hàng bán</v>
       </c>
       <c r="B4">
         <v>49500000000</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>6</v>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Lợi nhuận gộp</v>
       </c>
       <c r="B5">
         <v>-43345000000</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>7</v>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Chi phí bán hàng</v>
       </c>
       <c r="B6">
         <v>30000000</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>8</v>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Chi phí quản lý doanh nghiệp</v>
       </c>
       <c r="B7">
         <v>25000000</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>9</v>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Khấu hao tài sản cố định</v>
       </c>
       <c r="B8">
         <v>18000000</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>10</v>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>Chi phí thuê ngoài</v>
       </c>
       <c r="B9">
         <v>12000000</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>11</v>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Chi phí thuế khác</v>
       </c>
       <c r="B10">
         <v>120000</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>12</v>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Lợi nhuận thuần từ hoạt động kinh doanh</v>
       </c>
       <c r="B11">
         <v>-43430120000</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>13</v>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>Thuế TNDN</v>
       </c>
       <c r="B12">
         <v>15000000</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>14</v>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>Lợi nhuận sau thuế</v>
       </c>
       <c r="B13">
         <v>-43445120000</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>16</v>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>🔎 PHÂN TÍCH TÀI CHÍNH</v>
+      </c>
+      <c r="B15" t="str">
+        <v/>
+      </c>
+      <c r="C15" t="str">
+        <v/>
+      </c>
+      <c r="D15" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>ROA</v>
       </c>
       <c r="B16">
-        <v>-18.538407394940659</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>17</v>
+        <v>-18.53840739494066</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>ROE</v>
       </c>
       <c r="B17">
-        <v>-43.445120000000003</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>18</v>
+        <v>-43.44512</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>Tỷ lệ nợ / tổng tài sản</v>
       </c>
       <c r="B18">
-        <v>0.23682328657837901</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>19</v>
+        <v>0.236823286578379</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>Khả năng thanh toán hiện hành</v>
       </c>
       <c r="B19">
-        <v>873519372.53642857</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>20</v>
+        <v>873519372.5364286</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>Vòng quay hàng tồn kho</v>
       </c>
       <c r="B20">
-        <v>37.302991869644742</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>21</v>
+        <v>37.30299186964474</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>Vòng quay tài sản</v>
       </c>
       <c r="B21">
         <v>2.6263915835854466</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>22</v>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>Biên lợi nhuận ròng</v>
       </c>
       <c r="B22">
-        <v>-7.0585085296506902</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>23</v>
+        <v>-7.05850852965069</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>Biên lợi nhuận gộp</v>
       </c>
       <c r="B23">
-        <v>-7.0422420796100731</v>
+        <v>-7.042242079610073</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:D23" numberStoredAsText="1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D23"/>
   </ignoredErrors>
 </worksheet>
 </file>